--- a/Paper_resultados/Parametric_model/Survival_rate/Output/Total/Sex/Outcome_male.xlsx
+++ b/Paper_resultados/Parametric_model/Survival_rate/Output/Total/Sex/Outcome_male.xlsx
@@ -387,10 +387,10 @@
         <v>0.9304814200287996</v>
       </c>
       <c r="C2">
-        <v>0.9214998235899439</v>
+        <v>0.9212345884845585</v>
       </c>
       <c r="D2">
-        <v>0.9392284238370944</v>
+        <v>0.9396192410111824</v>
       </c>
     </row>
     <row r="3">
@@ -401,10 +401,10 @@
         <v>0.8711426671456276</v>
       </c>
       <c r="C3">
-        <v>0.8555618918784689</v>
+        <v>0.8549134131291252</v>
       </c>
       <c r="D3">
-        <v>0.8862503035026768</v>
+        <v>0.8871032311863464</v>
       </c>
     </row>
     <row r="4">
@@ -415,10 +415,10 @@
         <v>0.8201933830559319</v>
       </c>
       <c r="C4">
-        <v>0.8000484847483</v>
+        <v>0.7990294877625025</v>
       </c>
       <c r="D4">
-        <v>0.8405634280518351</v>
+        <v>0.8414360929920358</v>
       </c>
     </row>
     <row r="5">
@@ -429,10 +429,10 @@
         <v>0.7762107952162415</v>
       </c>
       <c r="C5">
-        <v>0.7528381260588144</v>
+        <v>0.751101105728752</v>
       </c>
       <c r="D5">
-        <v>0.8003330780993393</v>
+        <v>0.8008950318430346</v>
       </c>
     </row>
     <row r="6">
@@ -443,10 +443,10 @@
         <v>0.7380545069322394</v>
       </c>
       <c r="C6">
-        <v>0.7122224854739843</v>
+        <v>0.7096389690341026</v>
       </c>
       <c r="D6">
-        <v>0.7647521998087441</v>
+        <v>0.765615050747926</v>
       </c>
     </row>
     <row r="7">
@@ -457,10 +457,10 @@
         <v>0.7048030337914916</v>
       </c>
       <c r="C7">
-        <v>0.6774373761183514</v>
+        <v>0.6742722234351348</v>
       </c>
       <c r="D7">
-        <v>0.7338134484317729</v>
+        <v>0.7345111724812472</v>
       </c>
     </row>
     <row r="8">
@@ -471,10 +471,10 @@
         <v>0.6757060788313294</v>
       </c>
       <c r="C8">
-        <v>0.6468781493595949</v>
+        <v>0.6441603250092323</v>
       </c>
       <c r="D8">
-        <v>0.7067820265557501</v>
+        <v>0.7069676128769365</v>
       </c>
     </row>
     <row r="9">
@@ -485,10 +485,10 @@
         <v>0.6501483142497211</v>
       </c>
       <c r="C9">
-        <v>0.6202245095930091</v>
+        <v>0.6173755577065544</v>
       </c>
       <c r="D9">
-        <v>0.682413920289353</v>
+        <v>0.6825478613802501</v>
       </c>
     </row>
     <row r="10">
@@ -499,10 +499,10 @@
         <v>0.6276216565782615</v>
       </c>
       <c r="C10">
-        <v>0.5970908099173939</v>
+        <v>0.594064940237079</v>
       </c>
       <c r="D10">
-        <v>0.6608578532501468</v>
+        <v>0.6608175274174485</v>
       </c>
     </row>
     <row r="11">
@@ -513,10 +513,10 @@
         <v>0.6077038685660379</v>
       </c>
       <c r="C11">
-        <v>0.576503755057162</v>
+        <v>0.5738936188979189</v>
       </c>
       <c r="D11">
-        <v>0.6416825491379807</v>
+        <v>0.6412901212078319</v>
       </c>
     </row>
     <row r="12">
@@ -527,10 +527,10 @@
         <v>0.5900419147094287</v>
       </c>
       <c r="C12">
-        <v>0.5584537352691772</v>
+        <v>0.5563045006114613</v>
       </c>
       <c r="D12">
-        <v>0.6246618635628784</v>
+        <v>0.6238692228113666</v>
       </c>
     </row>
     <row r="13">
@@ -541,10 +541,10 @@
         <v>0.5743389179741974</v>
       </c>
       <c r="C13">
-        <v>0.5423733054620598</v>
+        <v>0.5402558571151572</v>
       </c>
       <c r="D13">
-        <v>0.6094422388875543</v>
+        <v>0.6082492485478933</v>
       </c>
     </row>
     <row r="14">
@@ -555,10 +555,10 @@
         <v>0.5603438660783553</v>
       </c>
       <c r="C14">
-        <v>0.5283856593844793</v>
+        <v>0.5259588038490605</v>
       </c>
       <c r="D14">
-        <v>0.5954678454136197</v>
+        <v>0.594540446454448</v>
       </c>
     </row>
     <row r="15">
@@ -569,10 +569,10 @@
         <v>0.5478434328015911</v>
       </c>
       <c r="C15">
-        <v>0.5154956566223371</v>
+        <v>0.5133217673152679</v>
       </c>
       <c r="D15">
-        <v>0.5829730520315075</v>
+        <v>0.5823060403406269</v>
       </c>
     </row>
     <row r="16">
@@ -583,10 +583,10 @@
         <v>0.5366554378162789</v>
       </c>
       <c r="C16">
-        <v>0.5043856356344311</v>
+        <v>0.5020451817775909</v>
       </c>
       <c r="D16">
-        <v>0.5716266418645687</v>
+        <v>0.571686615128736</v>
       </c>
     </row>
     <row r="17">
@@ -597,10 +597,10 @@
         <v>0.5266235845172411</v>
       </c>
       <c r="C17">
-        <v>0.4943945944951355</v>
+        <v>0.4919841815731267</v>
       </c>
       <c r="D17">
-        <v>0.5614095447655618</v>
+        <v>0.5612001064250544</v>
       </c>
     </row>
     <row r="18">
@@ -611,10 +611,10 @@
         <v>0.5176132011217642</v>
       </c>
       <c r="C18">
-        <v>0.4853572278693501</v>
+        <v>0.4829983828539188</v>
       </c>
       <c r="D18">
-        <v>0.5524101658195792</v>
+        <v>0.552513452638021</v>
       </c>
     </row>
     <row r="19">
@@ -625,10 +625,10 @@
         <v>0.5095077742539876</v>
       </c>
       <c r="C19">
-        <v>0.4767457945622048</v>
+        <v>0.4751468231107248</v>
       </c>
       <c r="D19">
-        <v>0.5445475441233064</v>
+        <v>0.5440830707804111</v>
       </c>
     </row>
     <row r="20">
@@ -639,10 +639,10 @@
         <v>0.5022061122283731</v>
       </c>
       <c r="C20">
-        <v>0.4694616335480386</v>
+        <v>0.4679479883834771</v>
       </c>
       <c r="D20">
-        <v>0.5373443179008275</v>
+        <v>0.5361897048972942</v>
       </c>
     </row>
     <row r="21">
@@ -653,10 +653,10 @@
         <v>0.4956200115291622</v>
       </c>
       <c r="C21">
-        <v>0.4629485019832679</v>
+        <v>0.4612255226185729</v>
       </c>
       <c r="D21">
-        <v>0.5309044565829436</v>
+        <v>0.5290331575418299</v>
       </c>
     </row>
     <row r="22">
@@ -667,10 +667,10 @@
         <v>0.4896723275888655</v>
       </c>
       <c r="C22">
-        <v>0.4567677890864861</v>
+        <v>0.4553711579725309</v>
       </c>
       <c r="D22">
-        <v>0.525027950620496</v>
+        <v>0.5231525247108409</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>0.484295372106771</v>
       </c>
       <c r="C23">
-        <v>0.4511725672250121</v>
+        <v>0.4498961147230905</v>
       </c>
       <c r="D23">
-        <v>0.5197726431323236</v>
+        <v>0.517150432035412</v>
       </c>
     </row>
     <row r="24">
@@ -695,10 +695,10 @@
         <v>0.4794295754320964</v>
       </c>
       <c r="C24">
-        <v>0.4460741443309634</v>
+        <v>0.4446892358286524</v>
       </c>
       <c r="D24">
-        <v>0.5150056453543337</v>
+        <v>0.5121802040685866</v>
       </c>
     </row>
     <row r="25">
@@ -709,10 +709,10 @@
         <v>0.4750223651536127</v>
       </c>
       <c r="C25">
-        <v>0.4411250548104517</v>
+        <v>0.4403620223487189</v>
       </c>
       <c r="D25">
-        <v>0.5106616940242503</v>
+        <v>0.5077674667663523</v>
       </c>
     </row>
     <row r="26">
@@ -723,10 +723,10 @@
         <v>0.4710272218685205</v>
       </c>
       <c r="C26">
-        <v>0.4369879165697286</v>
+        <v>0.4364558409990663</v>
       </c>
       <c r="D26">
-        <v>0.5070046948158112</v>
+        <v>0.5039896771737485</v>
       </c>
     </row>
     <row r="27">
@@ -737,10 +737,10 @@
         <v>0.4674028808044142</v>
       </c>
       <c r="C27">
-        <v>0.4333109628248171</v>
+        <v>0.432978782609613</v>
       </c>
       <c r="D27">
-        <v>0.5035170821807747</v>
+        <v>0.5006899482954685</v>
       </c>
     </row>
     <row r="28">
@@ -751,10 +751,10 @@
         <v>0.4641126540318353</v>
       </c>
       <c r="C28">
-        <v>0.4300132716211187</v>
+        <v>0.4294692694028511</v>
       </c>
       <c r="D28">
-        <v>0.5003528052524111</v>
+        <v>0.4977483347212673</v>
       </c>
     </row>
     <row r="29">
@@ -765,10 +765,10 @@
         <v>0.4611238528029155</v>
       </c>
       <c r="C29">
-        <v>0.4269863234096234</v>
+        <v>0.4261965955413958</v>
       </c>
       <c r="D29">
-        <v>0.497565418268537</v>
+        <v>0.4950858502496803</v>
       </c>
     </row>
     <row r="30">
@@ -779,10 +779,10 @@
         <v>0.4584072933661747</v>
       </c>
       <c r="C30">
-        <v>0.4242593039072478</v>
+        <v>0.4231808931649826</v>
       </c>
       <c r="D30">
-        <v>0.4949453767112438</v>
+        <v>0.4924522993348402</v>
       </c>
     </row>
     <row r="31">
@@ -793,10 +793,10 @@
         <v>0.4559368726540713</v>
       </c>
       <c r="C31">
-        <v>0.4216008149766243</v>
+        <v>0.4207121372285994</v>
       </c>
       <c r="D31">
-        <v>0.4924414689460141</v>
+        <v>0.4900050534803722</v>
       </c>
     </row>
     <row r="32">
@@ -807,10 +807,10 @@
         <v>0.4536892026837384</v>
       </c>
       <c r="C32">
-        <v>0.4191665729891405</v>
+        <v>0.4183792934127255</v>
       </c>
       <c r="D32">
-        <v>0.4903254466673536</v>
+        <v>0.4879843392316656</v>
       </c>
     </row>
     <row r="33">
@@ -821,10 +821,10 @@
         <v>0.4516432944800041</v>
       </c>
       <c r="C33">
-        <v>0.4171231003474223</v>
+        <v>0.4162970144845211</v>
       </c>
       <c r="D33">
-        <v>0.4883610235489396</v>
+        <v>0.4858690914358637</v>
       </c>
     </row>
     <row r="34">
@@ -835,10 +835,10 @@
         <v>0.4497802839221412</v>
       </c>
       <c r="C34">
-        <v>0.4151478046714641</v>
+        <v>0.414401627889147</v>
       </c>
       <c r="D34">
-        <v>0.4865716163170325</v>
+        <v>0.4837435210256819</v>
       </c>
     </row>
     <row r="35">
@@ -849,10 +849,10 @@
         <v>0.4480831932088341</v>
       </c>
       <c r="C35">
-        <v>0.4132487566282183</v>
+        <v>0.4126274588216012</v>
       </c>
       <c r="D35">
-        <v>0.4849403942082676</v>
+        <v>0.4817945978053172</v>
       </c>
     </row>
     <row r="36">
@@ -863,10 +863,10 @@
         <v>0.4465367226898362</v>
       </c>
       <c r="C36">
-        <v>0.4115951810732141</v>
+        <v>0.4111033678057102</v>
       </c>
       <c r="D36">
-        <v>0.483447541948677</v>
+        <v>0.4801152138556302</v>
       </c>
     </row>
     <row r="37">
@@ -877,10 +877,10 @@
         <v>0.445127068675083</v>
       </c>
       <c r="C37">
-        <v>0.4101127641413587</v>
+        <v>0.4094160364198506</v>
       </c>
       <c r="D37">
-        <v>0.4820301471457889</v>
+        <v>0.4787378436759993</v>
       </c>
     </row>
     <row r="38">
@@ -891,10 +891,10 @@
         <v>0.4438417635400111</v>
       </c>
       <c r="C38">
-        <v>0.4087515343143039</v>
+        <v>0.4080507175216367</v>
       </c>
       <c r="D38">
-        <v>0.4805510125841124</v>
+        <v>0.477481684762909</v>
       </c>
     </row>
     <row r="39">
@@ -905,10 +905,10 @@
         <v>0.4426695350291406</v>
       </c>
       <c r="C39">
-        <v>0.4075107327115708</v>
+        <v>0.4069754296545577</v>
       </c>
       <c r="D39">
-        <v>0.4794588258102744</v>
+        <v>0.4763357995341209</v>
       </c>
     </row>
     <row r="40">
@@ -919,10 +919,10 @@
         <v>0.4416001821421817</v>
       </c>
       <c r="C40">
-        <v>0.4064007685907078</v>
+        <v>0.4057103435786321</v>
       </c>
       <c r="D40">
-        <v>0.4784663314150667</v>
+        <v>0.4752902814153452</v>
       </c>
     </row>
     <row r="41">
@@ -933,10 +933,10 @@
         <v>0.4406244653868782</v>
       </c>
       <c r="C41">
-        <v>0.4054916359169087</v>
+        <v>0.4046661606852489</v>
       </c>
       <c r="D41">
-        <v>0.4775972080270895</v>
+        <v>0.4743361505733885</v>
       </c>
     </row>
     <row r="42">
@@ -947,10 +947,10 @@
         <v>0.4397340095155771</v>
       </c>
       <c r="C42">
-        <v>0.4045929208912785</v>
+        <v>0.403787985689256</v>
       </c>
       <c r="D42">
-        <v>0.4768062079214825</v>
+        <v>0.4733670593668449</v>
       </c>
     </row>
     <row r="43">
@@ -961,10 +961,10 @@
         <v>0.4389212171402955</v>
       </c>
       <c r="C43">
-        <v>0.4038140472938624</v>
+        <v>0.4031226879127355</v>
       </c>
       <c r="D43">
-        <v>0.4760861981812323</v>
+        <v>0.4726809906673672</v>
       </c>
     </row>
     <row r="44">
@@ -975,10 +975,10 @@
         <v>0.4358017268990407</v>
       </c>
       <c r="C44">
-        <v>0.4001762854098473</v>
+        <v>0.3997246006133469</v>
       </c>
       <c r="D44">
-        <v>0.4732007593471483</v>
+        <v>0.4693257805294755</v>
       </c>
     </row>
     <row r="45">
@@ -989,10 +989,10 @@
         <v>0.4332426626736566</v>
       </c>
       <c r="C45">
-        <v>0.3972636407418136</v>
+        <v>0.3966755071281107</v>
       </c>
       <c r="D45">
-        <v>0.4710854078368055</v>
+        <v>0.4670267892819492</v>
       </c>
     </row>
     <row r="46">
@@ -1003,10 +1003,10 @@
         <v>0.4304325413757716</v>
       </c>
       <c r="C46">
-        <v>0.3935369223531753</v>
+        <v>0.3938173180274999</v>
       </c>
       <c r="D46">
-        <v>0.4691930236857517</v>
+        <v>0.4644368814612637</v>
       </c>
     </row>
   </sheetData>
